--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/24677315/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/freeze/ce-uniform/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9945653676986694</v>
+        <v>0.9750465154647827</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9937385320663452</v>
+        <v>0.9725828766822815</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8917757272720337</v>
+        <v>0.6538121700286865</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9939101934432983</v>
+        <v>0.9730194807052612</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9943285584449768</v>
+        <v>0.9744042158126831</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9950830936431885</v>
+        <v>0.9769428968429565</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9943376183509827</v>
+        <v>0.9743970036506653</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9950830936431885</v>
+        <v>0.9769428968429565</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9951443076133728</v>
+        <v>0.977196216583252</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9954121708869934</v>
+        <v>0.9780973792076111</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9746245145797729</v>
+        <v>0.9061995148658752</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9947869777679443</v>
+        <v>0.9758833050727844</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9942777752876282</v>
+        <v>0.9745627045631409</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9938127994537354</v>
+        <v>0.9726554751396179</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9939858317375183</v>
+        <v>0.973107635974884</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.534224808216095</v>
+        <v>0.2836380898952484</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9946050047874451</v>
+        <v>0.9753745198249817</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.995381236076355</v>
+        <v>0.9778048992156982</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9942936301231384</v>
+        <v>0.9741519093513489</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.994839608669281</v>
+        <v>0.9759675264358521</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9945947527885437</v>
+        <v>0.9752957820892334</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9948403239250183</v>
+        <v>0.9760713577270508</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9091561436653137</v>
+        <v>0.6760908365249634</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4353089928627014</v>
+        <v>0.239125594496727</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9946123361587524</v>
+        <v>0.9752477407455444</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9943771958351135</v>
+        <v>0.9745697379112244</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9939351677894592</v>
+        <v>0.9730023145675659</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9931414723396301</v>
+        <v>0.9705570340156555</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9943941831588745</v>
+        <v>0.9746096730232239</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9683635234832764</v>
+        <v>0.886810839176178</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9757684469223022</v>
+        <v>0.9086373448371887</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.971144437789917</v>
+        <v>0.8968933820724487</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9943244457244873</v>
+        <v>0.9744218587875366</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9731138348579407</v>
+        <v>0.9017367362976074</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.995120108127594</v>
+        <v>0.9770424365997314</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9256598353385925</v>
+        <v>0.7979182600975037</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9686543941497803</v>
+        <v>0.8866859674453735</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9951280355453491</v>
+        <v>0.9770618081092834</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9670321941375732</v>
+        <v>0.8944697976112366</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9655284881591797</v>
+        <v>0.8793837428092957</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9669355750083923</v>
+        <v>0.8868605494499207</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9703781008720398</v>
+        <v>0.8917911052703857</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9669790267944336</v>
+        <v>0.8817426562309265</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6540650725364685</v>
+        <v>0.4364813566207886</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9658336639404297</v>
+        <v>0.8799318075180054</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9953990578651428</v>
+        <v>0.9780563116073608</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9588266015052795</v>
+        <v>0.863680899143219</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9421606063842773</v>
+        <v>0.8308382034301758</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9931020736694336</v>
+        <v>0.9704050421714783</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9588266015052795</v>
+        <v>0.863680899143219</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9587944746017456</v>
+        <v>0.8629915714263916</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9943115711212158</v>
+        <v>0.9743324518203735</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9951863884925842</v>
+        <v>0.9772737622261047</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.995374858379364</v>
+        <v>0.9779604077339172</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9719474315643311</v>
+        <v>0.898672878742218</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9954381585121155</v>
+        <v>0.9780718088150024</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9950241446495056</v>
+        <v>0.976535975933075</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9951163530349731</v>
+        <v>0.9770433306694031</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9949870109558105</v>
+        <v>0.976570725440979</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.967805802822113</v>
+        <v>0.8891996145248413</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7109024524688721</v>
+        <v>0.6382414698600769</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9714985489845276</v>
+        <v>0.8981837034225464</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9714985489845276</v>
+        <v>0.8981837034225464</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9678062796592712</v>
+        <v>0.8892902135848999</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9714985489845276</v>
+        <v>0.8981837034225464</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9381601810455322</v>
+        <v>0.6667643785476685</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9942862391471863</v>
+        <v>0.9743292927742004</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9678670167922974</v>
+        <v>0.8945332169532776</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9917776584625244</v>
+        <v>0.9661710262298584</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9734150767326355</v>
+        <v>0.9029163718223572</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9948371648788452</v>
+        <v>0.9761658310890198</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.993910551071167</v>
+        <v>0.9729983806610107</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9734150767326355</v>
+        <v>0.9029163718223572</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9931232333183289</v>
+        <v>0.9704675674438477</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9734150767326355</v>
+        <v>0.9029163718223572</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9946457147598267</v>
+        <v>0.9754931330680847</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9735106825828552</v>
+        <v>0.9026592969894409</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9932031631469727</v>
+        <v>0.9706774353981018</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9735106825828552</v>
+        <v>0.9026592969894409</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9932157397270203</v>
+        <v>0.9706228375434875</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9932157397270203</v>
+        <v>0.9706228375434875</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9954752326011658</v>
+        <v>0.9783012866973877</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9743709564208984</v>
+        <v>0.9054710268974304</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9945359230041504</v>
+        <v>0.9751083850860596</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9735619425773621</v>
+        <v>0.9030349850654602</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9931540489196777</v>
+        <v>0.9705162644386292</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9948108196258545</v>
+        <v>0.9759640097618103</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.994813084602356</v>
+        <v>0.9759384989738464</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9948102235794067</v>
+        <v>0.9759830236434937</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9948093891143799</v>
+        <v>0.9759456515312195</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9948116540908813</v>
+        <v>0.9759261012077332</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9948036074638367</v>
+        <v>0.975933849811554</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9953136444091797</v>
+        <v>0.9777305126190186</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7345796227455139</v>
+        <v>0.3454988300800323</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9953441023826599</v>
+        <v>0.9778317213058472</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9541807770729065</v>
+        <v>0.8548576831817627</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9943289160728455</v>
+        <v>0.974359393119812</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.99458247423172</v>
+        <v>0.9751582741737366</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8125074505805969</v>
+        <v>0.5484744906425476</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9635710716247559</v>
+        <v>0.8732259273529053</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9938672184944153</v>
+        <v>0.972881555557251</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9390407800674438</v>
+        <v>0.6693183779716492</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9943068623542786</v>
+        <v>0.9743903279304504</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9664031267166138</v>
+        <v>0.8818768262863159</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9144645929336548</v>
+        <v>0.6816515922546387</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9946568012237549</v>
+        <v>0.9754772782325745</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9684637188911438</v>
+        <v>0.8871234059333801</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9655337929725647</v>
+        <v>0.8796215653419495</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9751865267753601</v>
+        <v>0.9077508449554443</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9949911236763</v>
+        <v>0.9765265583992004</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9743415117263794</v>
+        <v>0.9052926301956177</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9930544495582581</v>
+        <v>0.9702119827270508</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9938279986381531</v>
+        <v>0.9727600812911987</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7845269441604614</v>
+        <v>0.5384353995323181</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9145877361297607</v>
+        <v>0.8104968667030334</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9381786584854126</v>
+        <v>0.6683266758918762</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9953351616859436</v>
+        <v>0.9778349995613098</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9381786584854126</v>
+        <v>0.6683266758918762</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9953351616859436</v>
+        <v>0.9778349995613098</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9381786584854126</v>
+        <v>0.6683266758918762</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9953265190124512</v>
+        <v>0.9778069853782654</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7412809729576111</v>
+        <v>0.5073744058609009</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9915781021118164</v>
+        <v>0.9694115519523621</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7372780442237854</v>
+        <v>0.4744905233383179</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9939137101173401</v>
+        <v>0.9729651808738708</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4843742251396179</v>
+        <v>0.300905853509903</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9938503503799438</v>
+        <v>0.9726895689964294</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9948171973228455</v>
+        <v>0.9761093854904175</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9943240880966187</v>
+        <v>0.97440505027771</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9919193983078003</v>
+        <v>0.9668419361114502</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9939367175102234</v>
+        <v>0.9730041027069092</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9939221143722534</v>
+        <v>0.972850501537323</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.993966817855835</v>
+        <v>0.9730864763259888</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9932776093482971</v>
+        <v>0.9708606600761414</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9947592616081238</v>
+        <v>0.9759928584098816</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9712637662887573</v>
+        <v>0.8972300887107849</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9949670433998108</v>
+        <v>0.9765317440032959</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9712637662887573</v>
+        <v>0.8972300887107849</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.993150532245636</v>
+        <v>0.9704702496528625</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9381601810455322</v>
+        <v>0.6667643785476685</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9945734143257141</v>
+        <v>0.9752607941627502</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9720394611358643</v>
+        <v>0.8998543620109558</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8551739454269409</v>
+        <v>0.5127115249633789</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7433573007583618</v>
+        <v>0.449118971824646</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9952242374420166</v>
+        <v>0.977447509765625</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9141499996185303</v>
+        <v>0.6816391944885254</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.994848906993866</v>
+        <v>0.9761132597923279</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9149466753005981</v>
+        <v>0.6845635175704956</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9949885010719299</v>
+        <v>0.9765785932540894</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9153507351875305</v>
+        <v>0.6849773526191711</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9950537085533142</v>
+        <v>0.9768165946006775</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9673744440078735</v>
+        <v>0.8827557563781738</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9945753812789917</v>
+        <v>0.9752044081687927</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9943897128105164</v>
+        <v>0.9748966097831726</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9939589500427246</v>
+        <v>0.9730281233787537</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.970832347869873</v>
+        <v>0.8966588973999023</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.995306670665741</v>
+        <v>0.9777072668075562</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9648526906967163</v>
+        <v>0.8794418573379517</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9625623822212219</v>
+        <v>0.8726385235786438</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9753264188766479</v>
+        <v>0.9077667593955994</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9625623822212219</v>
+        <v>0.8726385235786438</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9740251898765564</v>
+        <v>0.9045900106430054</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9931992888450623</v>
+        <v>0.9705857038497925</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9939228892326355</v>
+        <v>0.9729658365249634</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9939590692520142</v>
+        <v>0.9730024337768555</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9939228892326355</v>
+        <v>0.9729658365249634</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9939228892326355</v>
+        <v>0.9729658365249634</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9939590692520142</v>
+        <v>0.9730024337768555</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9946371912956238</v>
+        <v>0.9753477573394775</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9918926954269409</v>
+        <v>0.9664252400398254</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9939127564430237</v>
+        <v>0.9728662371635437</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9946740865707397</v>
+        <v>0.9754835367202759</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.994309663772583</v>
+        <v>0.9742609858512878</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9398832321166992</v>
+        <v>0.6733730435371399</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.995020866394043</v>
+        <v>0.9767458438873291</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9950135350227356</v>
+        <v>0.9767206311225891</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9950882792472839</v>
+        <v>0.9769421815872192</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9950956106185913</v>
+        <v>0.9768906831741333</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9946359992027283</v>
+        <v>0.9752765297889709</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9947749376296997</v>
+        <v>0.9758197069168091</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9947763681411743</v>
+        <v>0.9757766127586365</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7223347425460815</v>
+        <v>0.3264730870723724</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9943782687187195</v>
+        <v>0.9744981527328491</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.993962824344635</v>
+        <v>0.9730912446975708</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9337344765663147</v>
+        <v>0.658350944519043</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9696764349937439</v>
+        <v>0.888787567615509</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9950324296951294</v>
+        <v>0.9767985343933105</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9951137900352478</v>
+        <v>0.976972222328186</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9952103495597839</v>
+        <v>0.9773063063621521</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9945694804191589</v>
+        <v>0.9752143025398254</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9156665205955505</v>
+        <v>0.8207594156265259</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9945762157440186</v>
+        <v>0.9751855134963989</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9946751594543457</v>
+        <v>0.9755723476409912</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.993937611579895</v>
+        <v>0.9730318784713745</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9627043604850769</v>
+        <v>0.8723612427711487</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9952599406242371</v>
+        <v>0.9774277210235596</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9938969016075134</v>
+        <v>0.9728509783744812</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7385652661323547</v>
+        <v>0.3441163897514343</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9918448328971863</v>
+        <v>0.9662776589393616</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4834195971488953</v>
+        <v>0.2527876198291779</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9938886165618896</v>
+        <v>0.9728235602378845</v>
       </c>
     </row>
   </sheetData>
